--- a/xlsx/多党制_intext.xlsx
+++ b/xlsx/多党制_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>政黨體系</t>
+    <t>政党体系</t>
   </si>
   <si>
     <t>政策_政策_政治_多党制</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯合政府</t>
+    <t>联合政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>軍事政權</t>
+    <t>军事政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A</t>
   </si>
   <si>
-    <t>威權</t>
+    <t>威权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E8%81%94%E7%9B%9F_(%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A)</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>希望聯盟</t>
+    <t>希望联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%99%A3</t>
   </si>
   <si>
-    <t>國陣</t>
+    <t>国阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>馬來西亞下議院</t>
+    <t>马来西亚下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%B0%90%E9%98%B5%E7%BA%BF</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E6%B4%BE</t>
   </si>
   <si>
-    <t>中間派</t>
+    <t>中间派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%AB%8B%E6%B3%95%E6%9C%83</t>
   </si>
   <si>
-    <t>香港立法會</t>
+    <t>香港立法会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%BB%BA%E8%81%AF</t>
   </si>
   <si>
-    <t>民建聯</t>
+    <t>民建联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%B0%91%E4%B8%BB%E6%B4%BE</t>
@@ -299,49 +299,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>民主黨 (香港)</t>
+    <t>民主党 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E9%BB%A8_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>公民黨 (香港)</t>
+    <t>公民党 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%BB%A8_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>自由黨 (香港)</t>
+    <t>自由党 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B0%91%E9%BB%A8_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>新民黨 (香港)</t>
+    <t>新民党 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%81%AF%E6%9C%83</t>
   </si>
   <si>
-    <t>工聯會</t>
+    <t>工联会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%8D%94</t>
   </si>
   <si>
-    <t>民協</t>
+    <t>民协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E9%80%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>社會民主連線</t>
+    <t>社会民主连线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>工黨 (香港)</t>
+    <t>工党 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%88%B6%E6%B4%BE</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E7%95%8C%E5%88%A5</t>
   </si>
   <si>
-    <t>功能界別</t>
+    <t>功能界别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
@@ -371,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%BB%A0%E5%95%86%E6%9C%83</t>
   </si>
   <si>
-    <t>中華廠商會</t>
+    <t>中华厂商会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>

--- a/xlsx/多党制_intext.xlsx
+++ b/xlsx/多党制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>政黨體系</t>
   </si>
   <si>
-    <t>政策_政策_政治_多党制</t>
+    <t>体育运动_体育运动_伊朗_多党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
